--- a/SPM DQ GB.xlsx
+++ b/SPM DQ GB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/NHDAP/Shared Documents/General/Data Lab/Test Kits/DataLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{74AAC695-BD91-46FD-8199-60280394418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4228F1D-B819-48B4-AA9E-853522BA3E6C}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{74AAC695-BD91-46FD-8199-60280394418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85D62B3E-3921-4DD3-A9E6-A09A9F3BCE38}"/>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="975" windowWidth="15465" windowHeight="14025" activeTab="3" xr2:uid="{136076AF-3C24-4066-8BC5-19E41ECD53A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{136076AF-3C24-4066-8BC5-19E41ECD53A6}"/>
   </bookViews>
   <sheets>
     <sheet name="1a1 QA" sheetId="1" r:id="rId1"/>
@@ -4857,7 +4857,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -20746,7 +20746,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F350" sqref="F350"/>
     </sheetView>
   </sheetViews>
@@ -33437,6 +33437,308 @@
 </worksheet>
 </file>
 
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72ccbf35-dcc7-4590-9537-6d71d0e4df17">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b5134ab8-3d65-4fc5-b690-e8cc6b15e593" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D74FF526F6E9D64093B84A5D6336AF1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a6440a9bfad37630a9de3c12239ce70">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="72ccbf35-dcc7-4590-9537-6d71d0e4df17" xmlns:ns3="b5134ab8-3d65-4fc5-b690-e8cc6b15e593" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12778466fb680371bd3557b774cc2310" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="72ccbf35-dcc7-4590-9537-6d71d0e4df17"/>
+    <xsd:import namespace="b5134ab8-3d65-4fc5-b690-e8cc6b15e593"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72ccbf35-dcc7-4590-9537-6d71d0e4df17" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6856f2ee-118d-42e8-91de-064c9a66b685" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5134ab8-3d65-4fc5-b690-e8cc6b15e593" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ca472df6-c515-4947-b34e-afcc23c580e2}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b5134ab8-3d65-4fc5-b690-e8cc6b15e593">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{738EE9F4-CDEE-44B1-A03B-959205C3D5C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="72ccbf35-dcc7-4590-9537-6d71d0e4df17"/>
+    <ds:schemaRef ds:uri="b5134ab8-3d65-4fc5-b690-e8cc6b15e593"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9E3438-C6BC-49C6-B9C4-2F5D9983A5A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8397EBBE-1AFF-46E9-81F2-31F235EF8DDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="72ccbf35-dcc7-4590-9537-6d71d0e4df17"/>
+    <ds:schemaRef ds:uri="b5134ab8-3d65-4fc5-b690-e8cc6b15e593"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{cf90b97b-be46-4a00-9700-81ce4ff1b7f6}" enabled="0" method="" siteId="{cf90b97b-be46-4a00-9700-81ce4ff1b7f6}" removed="1"/>

--- a/SPM DQ GB.xlsx
+++ b/SPM DQ GB.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/NHDAP/Shared Documents/General/Data Lab/Test Kits/DataLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="8_{74AAC695-BD91-46FD-8199-60280394418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1540BBA7-E6E9-459A-945F-9924E5E49FD1}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="8_{74AAC695-BD91-46FD-8199-60280394418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6581F649-3F0A-4F0D-B313-164E3FFDDAE9}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="1020" windowWidth="12450" windowHeight="13785" activeTab="3" xr2:uid="{136076AF-3C24-4066-8BC5-19E41ECD53A6}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="15465" windowHeight="14025" xr2:uid="{136076AF-3C24-4066-8BC5-19E41ECD53A6}"/>
   </bookViews>
   <sheets>
     <sheet name="1a1 QA" sheetId="1" r:id="rId1"/>
     <sheet name="1a2 QA" sheetId="2" r:id="rId2"/>
     <sheet name="1b1 QA" sheetId="3" r:id="rId3"/>
     <sheet name="1b2 QA" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1a1 QA'!$B$1:$L$72</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="421">
   <si>
     <t>Public ID</t>
   </si>
@@ -1203,6 +1204,111 @@
   </si>
   <si>
     <t>297</t>
+  </si>
+  <si>
+    <t>XX-500</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Leaver</t>
+  </si>
+  <si>
+    <t>Temporary or Institutional</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>EnrollmentID</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>EntryDate</t>
+  </si>
+  <si>
+    <t>HouseholdID</t>
+  </si>
+  <si>
+    <t>RelationshipToHoH</t>
+  </si>
+  <si>
+    <t>EnrollmentCoC</t>
+  </si>
+  <si>
+    <t>LivingSituation</t>
+  </si>
+  <si>
+    <t>RentalSubsidyType</t>
+  </si>
+  <si>
+    <t>LengthOfStay</t>
+  </si>
+  <si>
+    <t>LOSUnderThreshold</t>
+  </si>
+  <si>
+    <t>PreviousStreetESSH</t>
+  </si>
+  <si>
+    <t>DateToStreetESSH</t>
+  </si>
+  <si>
+    <t>TimesHomelessPastThreeYears</t>
+  </si>
+  <si>
+    <t>MonthsHomelessPastThreeYears</t>
+  </si>
+  <si>
+    <t>DisablingCondition</t>
+  </si>
+  <si>
+    <t>DateOfEngagement</t>
+  </si>
+  <si>
+    <t>MoveInDate</t>
+  </si>
+  <si>
+    <t>ExitDate</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>ProjectType</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>HoH_HMID</t>
+  </si>
+  <si>
+    <t>MoveInDateAdj</t>
+  </si>
+  <si>
+    <t>lh_at_entry</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>m1_active.clients</t>
+  </si>
+  <si>
+    <t>exclude_enrollment</t>
+  </si>
+  <si>
+    <t>leaver.stayer</t>
+  </si>
+  <si>
+    <t>Destination_category</t>
+  </si>
+  <si>
+    <t>rank</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1281,11 +1387,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1609,8 +1726,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:M235"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M72" sqref="M72"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4214,7 +4331,7 @@
       <c r="I72">
         <v>82</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="11">
         <v>43765</v>
       </c>
       <c r="K72" s="6">
@@ -20804,7 +20921,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+    <sheetView topLeftCell="A322" workbookViewId="0">
       <selection activeCell="E355" sqref="E355"/>
     </sheetView>
   </sheetViews>
@@ -33500,6 +33617,7480 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD725CF8-6F7D-4E00-BAB8-FED6EBA077CC}">
+  <dimension ref="A1:AG77"/>
+  <sheetViews>
+    <sheetView topLeftCell="G49" workbookViewId="0">
+      <selection activeCell="U66" sqref="U66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M1" t="s">
+        <v>402</v>
+      </c>
+      <c r="N1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O1" t="s">
+        <v>404</v>
+      </c>
+      <c r="P1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>406</v>
+      </c>
+      <c r="R1" t="s">
+        <v>407</v>
+      </c>
+      <c r="S1" t="s">
+        <v>408</v>
+      </c>
+      <c r="T1" t="s">
+        <v>409</v>
+      </c>
+      <c r="U1" t="s">
+        <v>410</v>
+      </c>
+      <c r="V1" t="s">
+        <v>411</v>
+      </c>
+      <c r="W1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>192029</v>
+      </c>
+      <c r="B2">
+        <v>90932</v>
+      </c>
+      <c r="C2">
+        <v>1566</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43608</v>
+      </c>
+      <c r="E2">
+        <v>192029</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2">
+        <v>116</v>
+      </c>
+      <c r="I2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>99</v>
+      </c>
+      <c r="M2" s="6">
+        <v>43101</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>113</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>43608</v>
+      </c>
+      <c r="R2" t="s">
+        <v>387</v>
+      </c>
+      <c r="S2" s="6">
+        <v>44342</v>
+      </c>
+      <c r="T2">
+        <v>30</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2" s="6">
+        <v>35858</v>
+      </c>
+      <c r="W2" t="s">
+        <v>387</v>
+      </c>
+      <c r="X2" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>93443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>190739</v>
+      </c>
+      <c r="B3">
+        <v>91239</v>
+      </c>
+      <c r="C3">
+        <v>1568</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44139</v>
+      </c>
+      <c r="E3">
+        <v>190739</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H3">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>99</v>
+      </c>
+      <c r="L3">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
+        <v>387</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>113</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>44152</v>
+      </c>
+      <c r="R3" t="s">
+        <v>387</v>
+      </c>
+      <c r="S3" s="6">
+        <v>44166</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3" s="6">
+        <v>22305</v>
+      </c>
+      <c r="W3" t="s">
+        <v>387</v>
+      </c>
+      <c r="X3" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>92042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>190442</v>
+      </c>
+      <c r="B4">
+        <v>91430</v>
+      </c>
+      <c r="C4">
+        <v>1566</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43812</v>
+      </c>
+      <c r="E4">
+        <v>190442</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>99</v>
+      </c>
+      <c r="L4">
+        <v>99</v>
+      </c>
+      <c r="M4" s="6">
+        <v>38806</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>112</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>43812</v>
+      </c>
+      <c r="R4" t="s">
+        <v>387</v>
+      </c>
+      <c r="S4" s="6">
+        <v>44342</v>
+      </c>
+      <c r="T4">
+        <v>207</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4" s="6">
+        <v>31132</v>
+      </c>
+      <c r="W4" t="s">
+        <v>387</v>
+      </c>
+      <c r="X4" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>35</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>92218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>192015</v>
+      </c>
+      <c r="B5">
+        <v>91435</v>
+      </c>
+      <c r="C5">
+        <v>1566</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E5">
+        <v>192015</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>386</v>
+      </c>
+      <c r="H5">
+        <v>116</v>
+      </c>
+      <c r="I5" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s">
+        <v>387</v>
+      </c>
+      <c r="N5" t="s">
+        <v>387</v>
+      </c>
+      <c r="O5">
+        <v>111</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>387</v>
+      </c>
+      <c r="R5" t="s">
+        <v>387</v>
+      </c>
+      <c r="S5" s="6">
+        <v>44242</v>
+      </c>
+      <c r="T5">
+        <v>99</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5" s="6">
+        <v>30146</v>
+      </c>
+      <c r="W5" t="s">
+        <v>387</v>
+      </c>
+      <c r="X5" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>38</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>91501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>189576</v>
+      </c>
+      <c r="B6">
+        <v>91459</v>
+      </c>
+      <c r="C6">
+        <v>1568</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44225</v>
+      </c>
+      <c r="E6">
+        <v>189576</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>387</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>99</v>
+      </c>
+      <c r="L6">
+        <v>99</v>
+      </c>
+      <c r="M6" s="6">
+        <v>44225</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>387</v>
+      </c>
+      <c r="R6" t="s">
+        <v>387</v>
+      </c>
+      <c r="S6" s="6">
+        <v>44377</v>
+      </c>
+      <c r="T6">
+        <v>30</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6" s="6">
+        <v>33273</v>
+      </c>
+      <c r="W6" t="s">
+        <v>387</v>
+      </c>
+      <c r="X6" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>92297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>190028</v>
+      </c>
+      <c r="B7">
+        <v>91474</v>
+      </c>
+      <c r="C7">
+        <v>1566</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44067</v>
+      </c>
+      <c r="E7">
+        <v>190028</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7">
+        <v>99</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>99</v>
+      </c>
+      <c r="M7" t="s">
+        <v>387</v>
+      </c>
+      <c r="N7" t="s">
+        <v>387</v>
+      </c>
+      <c r="O7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P7">
+        <v>99</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>387</v>
+      </c>
+      <c r="R7" t="s">
+        <v>387</v>
+      </c>
+      <c r="S7" s="6">
+        <v>44291</v>
+      </c>
+      <c r="T7">
+        <v>99</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7" s="6">
+        <v>26512</v>
+      </c>
+      <c r="W7" t="s">
+        <v>387</v>
+      </c>
+      <c r="X7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>48</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>90932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>190050</v>
+      </c>
+      <c r="B8">
+        <v>91476</v>
+      </c>
+      <c r="C8">
+        <v>1566</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43776</v>
+      </c>
+      <c r="E8">
+        <v>190050</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8">
+        <v>411</v>
+      </c>
+      <c r="I8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>99</v>
+      </c>
+      <c r="M8" s="6">
+        <v>42819</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>113</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>44202</v>
+      </c>
+      <c r="R8" t="s">
+        <v>387</v>
+      </c>
+      <c r="S8" s="6">
+        <v>44328</v>
+      </c>
+      <c r="T8">
+        <v>435</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8" s="6">
+        <v>26864</v>
+      </c>
+      <c r="W8" t="s">
+        <v>387</v>
+      </c>
+      <c r="X8" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>47</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>93658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>190123</v>
+      </c>
+      <c r="B9">
+        <v>91477</v>
+      </c>
+      <c r="C9">
+        <v>1566</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43609</v>
+      </c>
+      <c r="E9">
+        <v>190123</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
+        <v>387</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <v>99</v>
+      </c>
+      <c r="M9" s="6">
+        <v>43586</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>103</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>387</v>
+      </c>
+      <c r="R9" t="s">
+        <v>387</v>
+      </c>
+      <c r="S9" s="6">
+        <v>44245</v>
+      </c>
+      <c r="T9">
+        <v>423</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9" s="6">
+        <v>29767</v>
+      </c>
+      <c r="W9" t="s">
+        <v>387</v>
+      </c>
+      <c r="X9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>39</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>94011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>191177</v>
+      </c>
+      <c r="B10">
+        <v>91493</v>
+      </c>
+      <c r="C10">
+        <v>1566</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43761</v>
+      </c>
+      <c r="E10">
+        <v>191177</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H10">
+        <v>116</v>
+      </c>
+      <c r="I10" t="s">
+        <v>387</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>99</v>
+      </c>
+      <c r="M10" s="6">
+        <v>43636</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>113</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>43761</v>
+      </c>
+      <c r="R10" t="s">
+        <v>387</v>
+      </c>
+      <c r="S10" s="6">
+        <v>44280</v>
+      </c>
+      <c r="T10">
+        <v>99</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10" s="6">
+        <v>28119</v>
+      </c>
+      <c r="W10" t="s">
+        <v>387</v>
+      </c>
+      <c r="X10" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>43</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>93449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>192456</v>
+      </c>
+      <c r="B11">
+        <v>91496</v>
+      </c>
+      <c r="C11">
+        <v>1566</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43782</v>
+      </c>
+      <c r="E11">
+        <v>192456</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>386</v>
+      </c>
+      <c r="H11">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>387</v>
+      </c>
+      <c r="J11">
+        <v>99</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>99</v>
+      </c>
+      <c r="M11" t="s">
+        <v>387</v>
+      </c>
+      <c r="N11" t="s">
+        <v>387</v>
+      </c>
+      <c r="O11" t="s">
+        <v>387</v>
+      </c>
+      <c r="P11">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>43782</v>
+      </c>
+      <c r="R11" t="s">
+        <v>387</v>
+      </c>
+      <c r="S11" s="6">
+        <v>44280</v>
+      </c>
+      <c r="T11">
+        <v>99</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11" s="6">
+        <v>23286</v>
+      </c>
+      <c r="W11" t="s">
+        <v>387</v>
+      </c>
+      <c r="X11" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>56</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>93470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>192464</v>
+      </c>
+      <c r="B12">
+        <v>91498</v>
+      </c>
+      <c r="C12">
+        <v>1566</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43682</v>
+      </c>
+      <c r="E12">
+        <v>192464</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12">
+        <v>116</v>
+      </c>
+      <c r="I12" t="s">
+        <v>387</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>99</v>
+      </c>
+      <c r="M12" s="6">
+        <v>40909</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>113</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>43702</v>
+      </c>
+      <c r="R12" t="s">
+        <v>387</v>
+      </c>
+      <c r="S12" s="6">
+        <v>44337</v>
+      </c>
+      <c r="T12">
+        <v>116</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12" s="6">
+        <v>31331</v>
+      </c>
+      <c r="W12" t="s">
+        <v>387</v>
+      </c>
+      <c r="X12" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>91477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>189577</v>
+      </c>
+      <c r="B13">
+        <v>91501</v>
+      </c>
+      <c r="C13">
+        <v>1568</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E13">
+        <v>189577</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>386</v>
+      </c>
+      <c r="H13">
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>387</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>99</v>
+      </c>
+      <c r="L13">
+        <v>99</v>
+      </c>
+      <c r="M13" s="6">
+        <v>44202</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>387</v>
+      </c>
+      <c r="R13" t="s">
+        <v>387</v>
+      </c>
+      <c r="S13" s="6">
+        <v>44439</v>
+      </c>
+      <c r="T13">
+        <v>225</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13" s="6">
+        <v>23008</v>
+      </c>
+      <c r="W13" t="s">
+        <v>387</v>
+      </c>
+      <c r="X13" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>58</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>92102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>190040</v>
+      </c>
+      <c r="B14">
+        <v>91507</v>
+      </c>
+      <c r="C14">
+        <v>1566</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44222</v>
+      </c>
+      <c r="E14">
+        <v>190040</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14">
+        <v>116</v>
+      </c>
+      <c r="I14" t="s">
+        <v>387</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>99</v>
+      </c>
+      <c r="L14">
+        <v>99</v>
+      </c>
+      <c r="M14" t="s">
+        <v>387</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>113</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>387</v>
+      </c>
+      <c r="R14" t="s">
+        <v>387</v>
+      </c>
+      <c r="S14" s="6">
+        <v>44312</v>
+      </c>
+      <c r="T14">
+        <v>99</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14" s="6">
+        <v>31000</v>
+      </c>
+      <c r="W14" t="s">
+        <v>387</v>
+      </c>
+      <c r="X14" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>93467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>190124</v>
+      </c>
+      <c r="B15">
+        <v>91508</v>
+      </c>
+      <c r="C15">
+        <v>1566</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44091</v>
+      </c>
+      <c r="E15">
+        <v>190124</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>386</v>
+      </c>
+      <c r="H15">
+        <v>116</v>
+      </c>
+      <c r="I15" t="s">
+        <v>387</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>99</v>
+      </c>
+      <c r="M15" t="s">
+        <v>387</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <v>113</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>387</v>
+      </c>
+      <c r="R15" t="s">
+        <v>387</v>
+      </c>
+      <c r="S15" s="6">
+        <v>44273</v>
+      </c>
+      <c r="T15">
+        <v>423</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15" s="6">
+        <v>27723</v>
+      </c>
+      <c r="W15" t="s">
+        <v>387</v>
+      </c>
+      <c r="X15" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>44</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>91523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>192300</v>
+      </c>
+      <c r="B16">
+        <v>91520</v>
+      </c>
+      <c r="C16">
+        <v>1566</v>
+      </c>
+      <c r="D16" s="6">
+        <v>43727</v>
+      </c>
+      <c r="E16">
+        <v>192300</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>386</v>
+      </c>
+      <c r="H16">
+        <v>116</v>
+      </c>
+      <c r="I16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>99</v>
+      </c>
+      <c r="L16">
+        <v>99</v>
+      </c>
+      <c r="M16" s="6">
+        <v>42948</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>113</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>43727</v>
+      </c>
+      <c r="R16" t="s">
+        <v>387</v>
+      </c>
+      <c r="S16" s="6">
+        <v>44334</v>
+      </c>
+      <c r="T16">
+        <v>435</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16" s="6">
+        <v>26870</v>
+      </c>
+      <c r="W16" t="s">
+        <v>387</v>
+      </c>
+      <c r="X16" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>47</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>92163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>190168</v>
+      </c>
+      <c r="B17">
+        <v>91523</v>
+      </c>
+      <c r="C17">
+        <v>1566</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43598</v>
+      </c>
+      <c r="E17">
+        <v>190168</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H17">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>387</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>99</v>
+      </c>
+      <c r="L17">
+        <v>99</v>
+      </c>
+      <c r="M17" t="s">
+        <v>387</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>112</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>43598</v>
+      </c>
+      <c r="R17" t="s">
+        <v>387</v>
+      </c>
+      <c r="S17" s="6">
+        <v>44462</v>
+      </c>
+      <c r="T17">
+        <v>30</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17" s="6">
+        <v>25386</v>
+      </c>
+      <c r="W17" t="s">
+        <v>387</v>
+      </c>
+      <c r="X17" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>51</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>92206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>191931</v>
+      </c>
+      <c r="B18">
+        <v>91525</v>
+      </c>
+      <c r="C18">
+        <v>1566</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43983</v>
+      </c>
+      <c r="E18">
+        <v>191931</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>386</v>
+      </c>
+      <c r="H18">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>387</v>
+      </c>
+      <c r="J18">
+        <v>99</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>99</v>
+      </c>
+      <c r="M18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N18" t="s">
+        <v>387</v>
+      </c>
+      <c r="O18" t="s">
+        <v>387</v>
+      </c>
+      <c r="P18">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>43983</v>
+      </c>
+      <c r="R18" t="s">
+        <v>387</v>
+      </c>
+      <c r="S18" s="6">
+        <v>44462</v>
+      </c>
+      <c r="T18">
+        <v>30</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18" s="6">
+        <v>30128</v>
+      </c>
+      <c r="W18" t="s">
+        <v>387</v>
+      </c>
+      <c r="X18" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>38</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>93447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>190403</v>
+      </c>
+      <c r="B19">
+        <v>91526</v>
+      </c>
+      <c r="C19">
+        <v>1566</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43992</v>
+      </c>
+      <c r="E19">
+        <v>190403</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>386</v>
+      </c>
+      <c r="H19">
+        <v>116</v>
+      </c>
+      <c r="I19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>99</v>
+      </c>
+      <c r="L19">
+        <v>99</v>
+      </c>
+      <c r="M19" t="s">
+        <v>387</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>113</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>43992</v>
+      </c>
+      <c r="R19" t="s">
+        <v>387</v>
+      </c>
+      <c r="S19" s="6">
+        <v>44455</v>
+      </c>
+      <c r="T19">
+        <v>30</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19" s="6">
+        <v>30644</v>
+      </c>
+      <c r="W19" t="s">
+        <v>387</v>
+      </c>
+      <c r="X19" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>36</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>93421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>191027</v>
+      </c>
+      <c r="B20">
+        <v>91532</v>
+      </c>
+      <c r="C20">
+        <v>1566</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44130</v>
+      </c>
+      <c r="E20">
+        <v>191027</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H20">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
+        <v>387</v>
+      </c>
+      <c r="J20">
+        <v>99</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>99</v>
+      </c>
+      <c r="M20" t="s">
+        <v>387</v>
+      </c>
+      <c r="N20" t="s">
+        <v>387</v>
+      </c>
+      <c r="O20" t="s">
+        <v>387</v>
+      </c>
+      <c r="P20">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>44130</v>
+      </c>
+      <c r="R20" t="s">
+        <v>387</v>
+      </c>
+      <c r="S20" s="6">
+        <v>44455</v>
+      </c>
+      <c r="T20">
+        <v>30</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20" s="6">
+        <v>23752</v>
+      </c>
+      <c r="W20" t="s">
+        <v>387</v>
+      </c>
+      <c r="X20" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>55</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>93633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>191668</v>
+      </c>
+      <c r="B21">
+        <v>91881</v>
+      </c>
+      <c r="C21">
+        <v>1566</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44321</v>
+      </c>
+      <c r="E21">
+        <v>191668</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>386</v>
+      </c>
+      <c r="H21">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>387</v>
+      </c>
+      <c r="J21">
+        <v>99</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>99</v>
+      </c>
+      <c r="M21" t="s">
+        <v>387</v>
+      </c>
+      <c r="N21" t="s">
+        <v>387</v>
+      </c>
+      <c r="O21" t="s">
+        <v>387</v>
+      </c>
+      <c r="P21">
+        <v>99</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>44321</v>
+      </c>
+      <c r="R21" t="s">
+        <v>387</v>
+      </c>
+      <c r="S21" s="6">
+        <v>44337</v>
+      </c>
+      <c r="T21">
+        <v>99</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21" s="6">
+        <v>29565</v>
+      </c>
+      <c r="W21" t="s">
+        <v>387</v>
+      </c>
+      <c r="X21" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>93654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>191852</v>
+      </c>
+      <c r="B22">
+        <v>92027</v>
+      </c>
+      <c r="C22">
+        <v>1566</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44230</v>
+      </c>
+      <c r="E22">
+        <v>191852</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>386</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>387</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>99</v>
+      </c>
+      <c r="L22">
+        <v>99</v>
+      </c>
+      <c r="M22" t="s">
+        <v>387</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>113</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>44230</v>
+      </c>
+      <c r="R22" t="s">
+        <v>387</v>
+      </c>
+      <c r="S22" s="6">
+        <v>44331</v>
+      </c>
+      <c r="T22">
+        <v>30</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22" s="6">
+        <v>30855</v>
+      </c>
+      <c r="W22" t="s">
+        <v>387</v>
+      </c>
+      <c r="X22" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>91476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>190049</v>
+      </c>
+      <c r="B23">
+        <v>92031</v>
+      </c>
+      <c r="C23">
+        <v>1566</v>
+      </c>
+      <c r="D23" s="6">
+        <v>43768</v>
+      </c>
+      <c r="E23">
+        <v>190049</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>386</v>
+      </c>
+      <c r="H23">
+        <v>116</v>
+      </c>
+      <c r="I23" t="s">
+        <v>387</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>99</v>
+      </c>
+      <c r="L23">
+        <v>99</v>
+      </c>
+      <c r="M23" s="6">
+        <v>42644</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>113</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>43985</v>
+      </c>
+      <c r="R23" t="s">
+        <v>387</v>
+      </c>
+      <c r="S23" s="6">
+        <v>44326</v>
+      </c>
+      <c r="T23">
+        <v>435</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23" s="6">
+        <v>28876</v>
+      </c>
+      <c r="W23" t="s">
+        <v>387</v>
+      </c>
+      <c r="X23" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>91493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>190166</v>
+      </c>
+      <c r="B24">
+        <v>92038</v>
+      </c>
+      <c r="C24">
+        <v>1566</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44230</v>
+      </c>
+      <c r="E24">
+        <v>190166</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H24">
+        <v>99</v>
+      </c>
+      <c r="I24" t="s">
+        <v>387</v>
+      </c>
+      <c r="J24">
+        <v>99</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>99</v>
+      </c>
+      <c r="M24" t="s">
+        <v>387</v>
+      </c>
+      <c r="N24" t="s">
+        <v>387</v>
+      </c>
+      <c r="O24" t="s">
+        <v>387</v>
+      </c>
+      <c r="P24">
+        <v>99</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>387</v>
+      </c>
+      <c r="R24" t="s">
+        <v>387</v>
+      </c>
+      <c r="S24" s="6">
+        <v>44456</v>
+      </c>
+      <c r="T24">
+        <v>30</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24" t="s">
+        <v>387</v>
+      </c>
+      <c r="W24" t="s">
+        <v>387</v>
+      </c>
+      <c r="X24" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>91459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>191733</v>
+      </c>
+      <c r="B25">
+        <v>92039</v>
+      </c>
+      <c r="C25">
+        <v>1568</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44109</v>
+      </c>
+      <c r="E25">
+        <v>191733</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>386</v>
+      </c>
+      <c r="H25">
+        <v>116</v>
+      </c>
+      <c r="I25" t="s">
+        <v>387</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>99</v>
+      </c>
+      <c r="L25">
+        <v>99</v>
+      </c>
+      <c r="M25" s="6">
+        <v>44075</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>44109</v>
+      </c>
+      <c r="R25" t="s">
+        <v>387</v>
+      </c>
+      <c r="S25" s="6">
+        <v>44166</v>
+      </c>
+      <c r="T25">
+        <v>30</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="V25" s="6">
+        <v>33239</v>
+      </c>
+      <c r="W25" t="s">
+        <v>387</v>
+      </c>
+      <c r="X25" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>29</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>92182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>191439</v>
+      </c>
+      <c r="B26">
+        <v>92042</v>
+      </c>
+      <c r="C26">
+        <v>1566</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44216</v>
+      </c>
+      <c r="E26">
+        <v>191439</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>386</v>
+      </c>
+      <c r="H26">
+        <v>99</v>
+      </c>
+      <c r="I26" t="s">
+        <v>387</v>
+      </c>
+      <c r="J26">
+        <v>99</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>99</v>
+      </c>
+      <c r="M26" t="s">
+        <v>387</v>
+      </c>
+      <c r="N26" t="s">
+        <v>387</v>
+      </c>
+      <c r="O26" t="s">
+        <v>387</v>
+      </c>
+      <c r="P26">
+        <v>99</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>387</v>
+      </c>
+      <c r="R26" t="s">
+        <v>387</v>
+      </c>
+      <c r="S26" s="6">
+        <v>44316</v>
+      </c>
+      <c r="T26">
+        <v>99</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26" t="s">
+        <v>387</v>
+      </c>
+      <c r="W26" t="s">
+        <v>387</v>
+      </c>
+      <c r="X26" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>91525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>190268</v>
+      </c>
+      <c r="B27">
+        <v>92047</v>
+      </c>
+      <c r="C27">
+        <v>1565</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44096</v>
+      </c>
+      <c r="E27">
+        <v>190268</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>386</v>
+      </c>
+      <c r="H27">
+        <v>116</v>
+      </c>
+      <c r="I27" t="s">
+        <v>387</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>99</v>
+      </c>
+      <c r="L27">
+        <v>99</v>
+      </c>
+      <c r="M27" s="6">
+        <v>44096</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>113</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>44096</v>
+      </c>
+      <c r="R27" t="s">
+        <v>387</v>
+      </c>
+      <c r="S27" s="6">
+        <v>44126</v>
+      </c>
+      <c r="T27">
+        <v>118</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27" s="6">
+        <v>29370</v>
+      </c>
+      <c r="W27" t="s">
+        <v>387</v>
+      </c>
+      <c r="X27" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>40</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>92123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>189658</v>
+      </c>
+      <c r="B28">
+        <v>92055</v>
+      </c>
+      <c r="C28">
+        <v>1568</v>
+      </c>
+      <c r="D28" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E28">
+        <v>189658</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H28">
+        <v>116</v>
+      </c>
+      <c r="I28" t="s">
+        <v>387</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>99</v>
+      </c>
+      <c r="L28">
+        <v>99</v>
+      </c>
+      <c r="M28" s="6">
+        <v>44210</v>
+      </c>
+      <c r="N28">
+        <v>8</v>
+      </c>
+      <c r="O28">
+        <v>8</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>387</v>
+      </c>
+      <c r="R28" t="s">
+        <v>387</v>
+      </c>
+      <c r="S28" s="6">
+        <v>44396</v>
+      </c>
+      <c r="T28">
+        <v>30</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28" s="6">
+        <v>28734</v>
+      </c>
+      <c r="W28" t="s">
+        <v>387</v>
+      </c>
+      <c r="X28" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>42</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>91526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>190257</v>
+      </c>
+      <c r="B29">
+        <v>92102</v>
+      </c>
+      <c r="C29">
+        <v>1566</v>
+      </c>
+      <c r="D29" s="6">
+        <v>44320</v>
+      </c>
+      <c r="E29">
+        <v>190257</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>386</v>
+      </c>
+      <c r="H29">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>387</v>
+      </c>
+      <c r="J29">
+        <v>99</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>99</v>
+      </c>
+      <c r="M29" t="s">
+        <v>387</v>
+      </c>
+      <c r="N29" t="s">
+        <v>387</v>
+      </c>
+      <c r="O29" t="s">
+        <v>387</v>
+      </c>
+      <c r="P29">
+        <v>99</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>387</v>
+      </c>
+      <c r="R29" t="s">
+        <v>387</v>
+      </c>
+      <c r="S29" s="6">
+        <v>44410</v>
+      </c>
+      <c r="T29">
+        <v>30</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29" t="s">
+        <v>387</v>
+      </c>
+      <c r="W29" t="s">
+        <v>387</v>
+      </c>
+      <c r="X29" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>93764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>190674</v>
+      </c>
+      <c r="B30">
+        <v>92123</v>
+      </c>
+      <c r="C30">
+        <v>1566</v>
+      </c>
+      <c r="D30" s="6">
+        <v>44319</v>
+      </c>
+      <c r="E30">
+        <v>190674</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>386</v>
+      </c>
+      <c r="H30">
+        <v>99</v>
+      </c>
+      <c r="I30" t="s">
+        <v>387</v>
+      </c>
+      <c r="J30">
+        <v>99</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>99</v>
+      </c>
+      <c r="M30" t="s">
+        <v>387</v>
+      </c>
+      <c r="N30" t="s">
+        <v>387</v>
+      </c>
+      <c r="O30" t="s">
+        <v>387</v>
+      </c>
+      <c r="P30">
+        <v>99</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>387</v>
+      </c>
+      <c r="R30" t="s">
+        <v>387</v>
+      </c>
+      <c r="S30" s="6">
+        <v>44319</v>
+      </c>
+      <c r="T30">
+        <v>99</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30" s="6">
+        <v>26197</v>
+      </c>
+      <c r="W30" t="s">
+        <v>387</v>
+      </c>
+      <c r="X30" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>49</v>
+      </c>
+      <c r="AA30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>91496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>191754</v>
+      </c>
+      <c r="B31">
+        <v>92149</v>
+      </c>
+      <c r="C31">
+        <v>1566</v>
+      </c>
+      <c r="D31" s="6">
+        <v>44327</v>
+      </c>
+      <c r="E31">
+        <v>191754</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>386</v>
+      </c>
+      <c r="H31">
+        <v>99</v>
+      </c>
+      <c r="I31" t="s">
+        <v>387</v>
+      </c>
+      <c r="J31">
+        <v>99</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>99</v>
+      </c>
+      <c r="M31" t="s">
+        <v>387</v>
+      </c>
+      <c r="N31" t="s">
+        <v>387</v>
+      </c>
+      <c r="O31" t="s">
+        <v>387</v>
+      </c>
+      <c r="P31">
+        <v>99</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>387</v>
+      </c>
+      <c r="R31" t="s">
+        <v>387</v>
+      </c>
+      <c r="S31" s="6">
+        <v>44330</v>
+      </c>
+      <c r="T31">
+        <v>99</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31" t="s">
+        <v>387</v>
+      </c>
+      <c r="W31" t="s">
+        <v>387</v>
+      </c>
+      <c r="X31" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>92047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>190126</v>
+      </c>
+      <c r="B32">
+        <v>92159</v>
+      </c>
+      <c r="C32">
+        <v>1566</v>
+      </c>
+      <c r="D32" s="6">
+        <v>44278</v>
+      </c>
+      <c r="E32">
+        <v>190126</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>386</v>
+      </c>
+      <c r="H32">
+        <v>99</v>
+      </c>
+      <c r="I32" t="s">
+        <v>387</v>
+      </c>
+      <c r="J32">
+        <v>99</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>99</v>
+      </c>
+      <c r="M32" t="s">
+        <v>387</v>
+      </c>
+      <c r="N32" t="s">
+        <v>387</v>
+      </c>
+      <c r="O32" t="s">
+        <v>387</v>
+      </c>
+      <c r="P32">
+        <v>99</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>387</v>
+      </c>
+      <c r="R32" t="s">
+        <v>387</v>
+      </c>
+      <c r="S32" s="6">
+        <v>44335</v>
+      </c>
+      <c r="T32">
+        <v>99</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32" s="6">
+        <v>28070</v>
+      </c>
+      <c r="W32" t="s">
+        <v>387</v>
+      </c>
+      <c r="X32" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>44</v>
+      </c>
+      <c r="AA32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>92294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>190114</v>
+      </c>
+      <c r="B33">
+        <v>92163</v>
+      </c>
+      <c r="C33">
+        <v>1566</v>
+      </c>
+      <c r="D33" s="6">
+        <v>44307</v>
+      </c>
+      <c r="E33">
+        <v>190114</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>386</v>
+      </c>
+      <c r="H33">
+        <v>101</v>
+      </c>
+      <c r="I33" t="s">
+        <v>387</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>99</v>
+      </c>
+      <c r="L33">
+        <v>99</v>
+      </c>
+      <c r="M33" s="6">
+        <v>42856</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>113</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>44321</v>
+      </c>
+      <c r="R33" t="s">
+        <v>387</v>
+      </c>
+      <c r="S33" s="6">
+        <v>44321</v>
+      </c>
+      <c r="T33">
+        <v>99</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+      <c r="V33" s="6">
+        <v>30989</v>
+      </c>
+      <c r="W33" t="s">
+        <v>387</v>
+      </c>
+      <c r="X33" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>36</v>
+      </c>
+      <c r="AA33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>92149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>190150</v>
+      </c>
+      <c r="B34">
+        <v>92182</v>
+      </c>
+      <c r="C34">
+        <v>1566</v>
+      </c>
+      <c r="D34" s="6">
+        <v>44334</v>
+      </c>
+      <c r="E34">
+        <v>190150</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>386</v>
+      </c>
+      <c r="H34">
+        <v>101</v>
+      </c>
+      <c r="I34" t="s">
+        <v>387</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>99</v>
+      </c>
+      <c r="L34">
+        <v>99</v>
+      </c>
+      <c r="M34" s="6">
+        <v>43969</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>112</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>387</v>
+      </c>
+      <c r="R34" t="s">
+        <v>387</v>
+      </c>
+      <c r="S34" s="6">
+        <v>44336</v>
+      </c>
+      <c r="T34">
+        <v>116</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34" t="s">
+        <v>387</v>
+      </c>
+      <c r="W34" t="s">
+        <v>387</v>
+      </c>
+      <c r="X34" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>93452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>190251</v>
+      </c>
+      <c r="B35">
+        <v>92186</v>
+      </c>
+      <c r="C35">
+        <v>1566</v>
+      </c>
+      <c r="D35" s="6">
+        <v>44319</v>
+      </c>
+      <c r="E35">
+        <v>190251</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>386</v>
+      </c>
+      <c r="H35">
+        <v>99</v>
+      </c>
+      <c r="I35" t="s">
+        <v>387</v>
+      </c>
+      <c r="J35">
+        <v>99</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>99</v>
+      </c>
+      <c r="M35" t="s">
+        <v>387</v>
+      </c>
+      <c r="N35" t="s">
+        <v>387</v>
+      </c>
+      <c r="O35" t="s">
+        <v>387</v>
+      </c>
+      <c r="P35">
+        <v>99</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>387</v>
+      </c>
+      <c r="R35" t="s">
+        <v>387</v>
+      </c>
+      <c r="S35" s="6">
+        <v>44393</v>
+      </c>
+      <c r="T35">
+        <v>30</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35" t="s">
+        <v>387</v>
+      </c>
+      <c r="W35" t="s">
+        <v>387</v>
+      </c>
+      <c r="X35" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>92293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>189575</v>
+      </c>
+      <c r="B36">
+        <v>92191</v>
+      </c>
+      <c r="C36">
+        <v>1568</v>
+      </c>
+      <c r="D36" s="6">
+        <v>44446</v>
+      </c>
+      <c r="E36">
+        <v>189575</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>386</v>
+      </c>
+      <c r="H36">
+        <v>116</v>
+      </c>
+      <c r="I36" t="s">
+        <v>387</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>99</v>
+      </c>
+      <c r="L36">
+        <v>99</v>
+      </c>
+      <c r="M36" s="6">
+        <v>44445</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>113</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>387</v>
+      </c>
+      <c r="R36" t="s">
+        <v>387</v>
+      </c>
+      <c r="S36" s="6">
+        <v>44447</v>
+      </c>
+      <c r="T36">
+        <v>435</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="V36" s="6">
+        <v>32062</v>
+      </c>
+      <c r="W36" t="s">
+        <v>387</v>
+      </c>
+      <c r="X36" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>33</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE36">
+        <v>2</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>93434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>190149</v>
+      </c>
+      <c r="B37">
+        <v>92198</v>
+      </c>
+      <c r="C37">
+        <v>1566</v>
+      </c>
+      <c r="D37" s="6">
+        <v>43999</v>
+      </c>
+      <c r="E37">
+        <v>190149</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>386</v>
+      </c>
+      <c r="H37">
+        <v>99</v>
+      </c>
+      <c r="I37" t="s">
+        <v>387</v>
+      </c>
+      <c r="J37">
+        <v>99</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>99</v>
+      </c>
+      <c r="M37" t="s">
+        <v>387</v>
+      </c>
+      <c r="N37" t="s">
+        <v>387</v>
+      </c>
+      <c r="O37" t="s">
+        <v>387</v>
+      </c>
+      <c r="P37">
+        <v>99</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>387</v>
+      </c>
+      <c r="R37" t="s">
+        <v>387</v>
+      </c>
+      <c r="S37" s="6">
+        <v>44319</v>
+      </c>
+      <c r="T37">
+        <v>99</v>
+      </c>
+      <c r="U37">
+        <v>4</v>
+      </c>
+      <c r="V37" t="s">
+        <v>387</v>
+      </c>
+      <c r="W37" t="s">
+        <v>387</v>
+      </c>
+      <c r="X37" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>93435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>192473</v>
+      </c>
+      <c r="B38">
+        <v>92205</v>
+      </c>
+      <c r="C38">
+        <v>1566</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44197</v>
+      </c>
+      <c r="E38">
+        <v>192473</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>386</v>
+      </c>
+      <c r="H38">
+        <v>99</v>
+      </c>
+      <c r="I38" t="s">
+        <v>387</v>
+      </c>
+      <c r="J38">
+        <v>99</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>99</v>
+      </c>
+      <c r="M38" t="s">
+        <v>387</v>
+      </c>
+      <c r="N38" t="s">
+        <v>387</v>
+      </c>
+      <c r="O38" t="s">
+        <v>387</v>
+      </c>
+      <c r="P38">
+        <v>99</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>387</v>
+      </c>
+      <c r="R38" t="s">
+        <v>387</v>
+      </c>
+      <c r="S38" s="6">
+        <v>44293</v>
+      </c>
+      <c r="T38">
+        <v>99</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="V38" s="6">
+        <v>32510</v>
+      </c>
+      <c r="W38" t="s">
+        <v>387</v>
+      </c>
+      <c r="X38" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>31</v>
+      </c>
+      <c r="AA38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>91507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>190280</v>
+      </c>
+      <c r="B39">
+        <v>92206</v>
+      </c>
+      <c r="C39">
+        <v>1566</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44321</v>
+      </c>
+      <c r="E39">
+        <v>190280</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>386</v>
+      </c>
+      <c r="H39">
+        <v>99</v>
+      </c>
+      <c r="I39" t="s">
+        <v>387</v>
+      </c>
+      <c r="J39">
+        <v>99</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>99</v>
+      </c>
+      <c r="M39" t="s">
+        <v>387</v>
+      </c>
+      <c r="N39" t="s">
+        <v>387</v>
+      </c>
+      <c r="O39" t="s">
+        <v>387</v>
+      </c>
+      <c r="P39">
+        <v>99</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>387</v>
+      </c>
+      <c r="R39" t="s">
+        <v>387</v>
+      </c>
+      <c r="S39" s="6">
+        <v>44331</v>
+      </c>
+      <c r="T39">
+        <v>30</v>
+      </c>
+      <c r="U39">
+        <v>4</v>
+      </c>
+      <c r="V39" t="s">
+        <v>387</v>
+      </c>
+      <c r="W39" t="s">
+        <v>387</v>
+      </c>
+      <c r="X39" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>91239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>190293</v>
+      </c>
+      <c r="B40">
+        <v>92210</v>
+      </c>
+      <c r="C40">
+        <v>1566</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44320</v>
+      </c>
+      <c r="E40">
+        <v>190293</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>386</v>
+      </c>
+      <c r="H40">
+        <v>99</v>
+      </c>
+      <c r="I40" t="s">
+        <v>387</v>
+      </c>
+      <c r="J40">
+        <v>99</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>99</v>
+      </c>
+      <c r="M40" t="s">
+        <v>387</v>
+      </c>
+      <c r="N40" t="s">
+        <v>387</v>
+      </c>
+      <c r="O40" t="s">
+        <v>387</v>
+      </c>
+      <c r="P40">
+        <v>99</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>387</v>
+      </c>
+      <c r="R40" t="s">
+        <v>387</v>
+      </c>
+      <c r="S40" s="6">
+        <v>44410</v>
+      </c>
+      <c r="T40">
+        <v>30</v>
+      </c>
+      <c r="U40">
+        <v>4</v>
+      </c>
+      <c r="V40" t="s">
+        <v>387</v>
+      </c>
+      <c r="W40" t="s">
+        <v>387</v>
+      </c>
+      <c r="X40" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>93444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>191364</v>
+      </c>
+      <c r="B41">
+        <v>92218</v>
+      </c>
+      <c r="C41">
+        <v>1566</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44295</v>
+      </c>
+      <c r="E41">
+        <v>191364</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>386</v>
+      </c>
+      <c r="H41">
+        <v>99</v>
+      </c>
+      <c r="I41" t="s">
+        <v>387</v>
+      </c>
+      <c r="J41">
+        <v>99</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>99</v>
+      </c>
+      <c r="M41" t="s">
+        <v>387</v>
+      </c>
+      <c r="N41" t="s">
+        <v>387</v>
+      </c>
+      <c r="O41" t="s">
+        <v>387</v>
+      </c>
+      <c r="P41">
+        <v>99</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>387</v>
+      </c>
+      <c r="R41" t="s">
+        <v>387</v>
+      </c>
+      <c r="S41" s="6">
+        <v>44385</v>
+      </c>
+      <c r="T41">
+        <v>101</v>
+      </c>
+      <c r="U41">
+        <v>4</v>
+      </c>
+      <c r="V41" s="6">
+        <v>33928</v>
+      </c>
+      <c r="W41" t="s">
+        <v>387</v>
+      </c>
+      <c r="X41" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>28</v>
+      </c>
+      <c r="AA41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="4">
+        <v>92039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>192273</v>
+      </c>
+      <c r="B42">
+        <v>92230</v>
+      </c>
+      <c r="C42">
+        <v>1566</v>
+      </c>
+      <c r="D42" s="6">
+        <v>44256</v>
+      </c>
+      <c r="E42">
+        <v>192273</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>386</v>
+      </c>
+      <c r="H42">
+        <v>99</v>
+      </c>
+      <c r="I42" t="s">
+        <v>387</v>
+      </c>
+      <c r="J42">
+        <v>99</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>99</v>
+      </c>
+      <c r="M42" t="s">
+        <v>387</v>
+      </c>
+      <c r="N42" t="s">
+        <v>387</v>
+      </c>
+      <c r="O42" t="s">
+        <v>387</v>
+      </c>
+      <c r="P42">
+        <v>99</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>387</v>
+      </c>
+      <c r="R42" t="s">
+        <v>387</v>
+      </c>
+      <c r="S42" s="6">
+        <v>44265</v>
+      </c>
+      <c r="T42">
+        <v>30</v>
+      </c>
+      <c r="U42">
+        <v>4</v>
+      </c>
+      <c r="V42" s="6">
+        <v>23257</v>
+      </c>
+      <c r="W42" t="s">
+        <v>387</v>
+      </c>
+      <c r="X42" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>57</v>
+      </c>
+      <c r="AA42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="4">
+        <v>91881</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>190303</v>
+      </c>
+      <c r="B43">
+        <v>92242</v>
+      </c>
+      <c r="C43">
+        <v>1566</v>
+      </c>
+      <c r="D43" s="6">
+        <v>44320</v>
+      </c>
+      <c r="E43">
+        <v>190303</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>386</v>
+      </c>
+      <c r="H43">
+        <v>99</v>
+      </c>
+      <c r="I43" t="s">
+        <v>387</v>
+      </c>
+      <c r="J43">
+        <v>99</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>99</v>
+      </c>
+      <c r="M43" t="s">
+        <v>387</v>
+      </c>
+      <c r="N43" t="s">
+        <v>387</v>
+      </c>
+      <c r="O43" t="s">
+        <v>387</v>
+      </c>
+      <c r="P43">
+        <v>99</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>387</v>
+      </c>
+      <c r="R43" t="s">
+        <v>387</v>
+      </c>
+      <c r="S43" s="6">
+        <v>44410</v>
+      </c>
+      <c r="T43">
+        <v>30</v>
+      </c>
+      <c r="U43">
+        <v>4</v>
+      </c>
+      <c r="V43" t="s">
+        <v>387</v>
+      </c>
+      <c r="W43" t="s">
+        <v>387</v>
+      </c>
+      <c r="X43" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="4">
+        <v>91532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>191459</v>
+      </c>
+      <c r="B44">
+        <v>92244</v>
+      </c>
+      <c r="C44">
+        <v>1566</v>
+      </c>
+      <c r="D44" s="6">
+        <v>44337</v>
+      </c>
+      <c r="E44">
+        <v>191459</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>386</v>
+      </c>
+      <c r="H44">
+        <v>99</v>
+      </c>
+      <c r="I44" t="s">
+        <v>387</v>
+      </c>
+      <c r="J44">
+        <v>99</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>99</v>
+      </c>
+      <c r="M44" t="s">
+        <v>387</v>
+      </c>
+      <c r="N44" t="s">
+        <v>387</v>
+      </c>
+      <c r="O44" t="s">
+        <v>387</v>
+      </c>
+      <c r="P44">
+        <v>99</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>387</v>
+      </c>
+      <c r="R44" t="s">
+        <v>387</v>
+      </c>
+      <c r="S44" s="6">
+        <v>44338</v>
+      </c>
+      <c r="T44">
+        <v>30</v>
+      </c>
+      <c r="U44">
+        <v>4</v>
+      </c>
+      <c r="V44" t="s">
+        <v>387</v>
+      </c>
+      <c r="W44" t="s">
+        <v>387</v>
+      </c>
+      <c r="X44" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="4">
+        <v>93437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>190572</v>
+      </c>
+      <c r="B45">
+        <v>92247</v>
+      </c>
+      <c r="C45">
+        <v>1566</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44335</v>
+      </c>
+      <c r="E45">
+        <v>190572</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>386</v>
+      </c>
+      <c r="H45">
+        <v>99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>387</v>
+      </c>
+      <c r="J45">
+        <v>99</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>99</v>
+      </c>
+      <c r="M45" t="s">
+        <v>387</v>
+      </c>
+      <c r="N45" t="s">
+        <v>387</v>
+      </c>
+      <c r="O45" t="s">
+        <v>387</v>
+      </c>
+      <c r="P45">
+        <v>99</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>44335</v>
+      </c>
+      <c r="R45" t="s">
+        <v>387</v>
+      </c>
+      <c r="S45" s="6">
+        <v>44336</v>
+      </c>
+      <c r="T45">
+        <v>215</v>
+      </c>
+      <c r="U45">
+        <v>4</v>
+      </c>
+      <c r="V45" s="6">
+        <v>36631</v>
+      </c>
+      <c r="W45" t="s">
+        <v>387</v>
+      </c>
+      <c r="X45" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>21</v>
+      </c>
+      <c r="AA45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="4">
+        <v>93660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>190211</v>
+      </c>
+      <c r="B46">
+        <v>92292</v>
+      </c>
+      <c r="C46">
+        <v>1566</v>
+      </c>
+      <c r="D46" s="6">
+        <v>44327</v>
+      </c>
+      <c r="E46">
+        <v>190211</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>386</v>
+      </c>
+      <c r="H46">
+        <v>99</v>
+      </c>
+      <c r="I46" t="s">
+        <v>387</v>
+      </c>
+      <c r="J46">
+        <v>99</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>99</v>
+      </c>
+      <c r="M46" t="s">
+        <v>387</v>
+      </c>
+      <c r="N46" t="s">
+        <v>387</v>
+      </c>
+      <c r="O46" t="s">
+        <v>387</v>
+      </c>
+      <c r="P46">
+        <v>99</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>387</v>
+      </c>
+      <c r="R46" t="s">
+        <v>387</v>
+      </c>
+      <c r="S46" s="6">
+        <v>44329</v>
+      </c>
+      <c r="T46">
+        <v>30</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+      <c r="V46" s="6">
+        <v>26749</v>
+      </c>
+      <c r="W46" t="s">
+        <v>387</v>
+      </c>
+      <c r="X46" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>48</v>
+      </c>
+      <c r="AA46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="4">
+        <v>93656</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>190476</v>
+      </c>
+      <c r="B47">
+        <v>92293</v>
+      </c>
+      <c r="C47">
+        <v>1566</v>
+      </c>
+      <c r="D47" s="6">
+        <v>44279</v>
+      </c>
+      <c r="E47">
+        <v>190476</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>386</v>
+      </c>
+      <c r="H47">
+        <v>99</v>
+      </c>
+      <c r="I47" t="s">
+        <v>387</v>
+      </c>
+      <c r="J47">
+        <v>99</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>99</v>
+      </c>
+      <c r="M47" t="s">
+        <v>387</v>
+      </c>
+      <c r="N47" t="s">
+        <v>387</v>
+      </c>
+      <c r="O47" t="s">
+        <v>387</v>
+      </c>
+      <c r="P47">
+        <v>99</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>387</v>
+      </c>
+      <c r="R47" t="s">
+        <v>387</v>
+      </c>
+      <c r="S47" s="6">
+        <v>44427</v>
+      </c>
+      <c r="T47">
+        <v>30</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+      <c r="V47" s="6">
+        <v>26097</v>
+      </c>
+      <c r="W47" t="s">
+        <v>387</v>
+      </c>
+      <c r="X47" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>49</v>
+      </c>
+      <c r="AA47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="4">
+        <v>92159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>190984</v>
+      </c>
+      <c r="B48">
+        <v>92294</v>
+      </c>
+      <c r="C48">
+        <v>1566</v>
+      </c>
+      <c r="D48" s="6">
+        <v>44295</v>
+      </c>
+      <c r="E48">
+        <v>190984</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>386</v>
+      </c>
+      <c r="H48">
+        <v>116</v>
+      </c>
+      <c r="I48" t="s">
+        <v>387</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>99</v>
+      </c>
+      <c r="L48">
+        <v>99</v>
+      </c>
+      <c r="M48" s="6">
+        <v>44273</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>101</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>44295</v>
+      </c>
+      <c r="R48" t="s">
+        <v>387</v>
+      </c>
+      <c r="S48" s="6">
+        <v>44295</v>
+      </c>
+      <c r="T48">
+        <v>99</v>
+      </c>
+      <c r="U48">
+        <v>4</v>
+      </c>
+      <c r="V48" s="6">
+        <v>20221</v>
+      </c>
+      <c r="W48" t="s">
+        <v>387</v>
+      </c>
+      <c r="X48" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>65</v>
+      </c>
+      <c r="AA48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>92326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>192262</v>
+      </c>
+      <c r="B49">
+        <v>92297</v>
+      </c>
+      <c r="C49">
+        <v>1566</v>
+      </c>
+      <c r="D49" s="6">
+        <v>44320</v>
+      </c>
+      <c r="E49">
+        <v>192262</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>386</v>
+      </c>
+      <c r="H49">
+        <v>99</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49">
+        <v>99</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>99</v>
+      </c>
+      <c r="M49" t="s">
+        <v>387</v>
+      </c>
+      <c r="N49" t="s">
+        <v>387</v>
+      </c>
+      <c r="O49" t="s">
+        <v>387</v>
+      </c>
+      <c r="P49">
+        <v>99</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>387</v>
+      </c>
+      <c r="R49" t="s">
+        <v>387</v>
+      </c>
+      <c r="S49" s="6">
+        <v>44410</v>
+      </c>
+      <c r="T49">
+        <v>30</v>
+      </c>
+      <c r="U49">
+        <v>4</v>
+      </c>
+      <c r="V49" t="s">
+        <v>387</v>
+      </c>
+      <c r="W49" t="s">
+        <v>387</v>
+      </c>
+      <c r="X49" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="4">
+        <v>91474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>191305</v>
+      </c>
+      <c r="B50">
+        <v>92326</v>
+      </c>
+      <c r="C50">
+        <v>1566</v>
+      </c>
+      <c r="D50" s="6">
+        <v>44320</v>
+      </c>
+      <c r="E50">
+        <v>191305</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>386</v>
+      </c>
+      <c r="H50">
+        <v>99</v>
+      </c>
+      <c r="I50" t="s">
+        <v>387</v>
+      </c>
+      <c r="J50">
+        <v>99</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>99</v>
+      </c>
+      <c r="M50" t="s">
+        <v>387</v>
+      </c>
+      <c r="N50" t="s">
+        <v>387</v>
+      </c>
+      <c r="O50" t="s">
+        <v>387</v>
+      </c>
+      <c r="P50">
+        <v>99</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>387</v>
+      </c>
+      <c r="R50" t="s">
+        <v>387</v>
+      </c>
+      <c r="S50" s="6">
+        <v>44410</v>
+      </c>
+      <c r="T50">
+        <v>30</v>
+      </c>
+      <c r="U50">
+        <v>4</v>
+      </c>
+      <c r="V50" t="s">
+        <v>387</v>
+      </c>
+      <c r="W50" t="s">
+        <v>387</v>
+      </c>
+      <c r="X50" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>92038</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>191311</v>
+      </c>
+      <c r="B51">
+        <v>93343</v>
+      </c>
+      <c r="C51">
+        <v>1566</v>
+      </c>
+      <c r="D51" s="6">
+        <v>43800</v>
+      </c>
+      <c r="E51">
+        <v>191311</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>386</v>
+      </c>
+      <c r="H51">
+        <v>101</v>
+      </c>
+      <c r="I51" t="s">
+        <v>387</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>99</v>
+      </c>
+      <c r="L51">
+        <v>99</v>
+      </c>
+      <c r="M51" t="s">
+        <v>387</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51">
+        <v>113</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>43800</v>
+      </c>
+      <c r="R51" t="s">
+        <v>387</v>
+      </c>
+      <c r="S51" s="6">
+        <v>44441</v>
+      </c>
+      <c r="T51">
+        <v>30</v>
+      </c>
+      <c r="U51">
+        <v>4</v>
+      </c>
+      <c r="V51" s="6">
+        <v>28048</v>
+      </c>
+      <c r="W51" t="s">
+        <v>387</v>
+      </c>
+      <c r="X51" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>43</v>
+      </c>
+      <c r="AA51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>93655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>191890</v>
+      </c>
+      <c r="B52">
+        <v>93421</v>
+      </c>
+      <c r="C52">
+        <v>1566</v>
+      </c>
+      <c r="D52" s="6">
+        <v>44420</v>
+      </c>
+      <c r="E52">
+        <v>191890</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>386</v>
+      </c>
+      <c r="H52">
+        <v>99</v>
+      </c>
+      <c r="I52" t="s">
+        <v>387</v>
+      </c>
+      <c r="J52">
+        <v>99</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>99</v>
+      </c>
+      <c r="M52" t="s">
+        <v>387</v>
+      </c>
+      <c r="N52" t="s">
+        <v>387</v>
+      </c>
+      <c r="O52" t="s">
+        <v>387</v>
+      </c>
+      <c r="P52">
+        <v>99</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>387</v>
+      </c>
+      <c r="R52" t="s">
+        <v>387</v>
+      </c>
+      <c r="S52" s="6">
+        <v>44433</v>
+      </c>
+      <c r="T52">
+        <v>99</v>
+      </c>
+      <c r="U52">
+        <v>4</v>
+      </c>
+      <c r="V52" s="6">
+        <v>26146</v>
+      </c>
+      <c r="W52" t="s">
+        <v>387</v>
+      </c>
+      <c r="X52" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>50</v>
+      </c>
+      <c r="AA52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>92186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>191099</v>
+      </c>
+      <c r="B53">
+        <v>93423</v>
+      </c>
+      <c r="C53">
+        <v>1568</v>
+      </c>
+      <c r="D53" s="6">
+        <v>44379</v>
+      </c>
+      <c r="E53">
+        <v>191099</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>386</v>
+      </c>
+      <c r="H53">
+        <v>116</v>
+      </c>
+      <c r="I53" t="s">
+        <v>387</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>99</v>
+      </c>
+      <c r="L53">
+        <v>99</v>
+      </c>
+      <c r="M53" s="6">
+        <v>43466</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>105</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>44379</v>
+      </c>
+      <c r="R53" t="s">
+        <v>387</v>
+      </c>
+      <c r="S53" s="6">
+        <v>44380</v>
+      </c>
+      <c r="T53">
+        <v>30</v>
+      </c>
+      <c r="U53">
+        <v>4</v>
+      </c>
+      <c r="V53" s="6">
+        <v>19891</v>
+      </c>
+      <c r="W53" t="s">
+        <v>387</v>
+      </c>
+      <c r="X53" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>67</v>
+      </c>
+      <c r="AA53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>92191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>191524</v>
+      </c>
+      <c r="B54">
+        <v>93428</v>
+      </c>
+      <c r="C54">
+        <v>1568</v>
+      </c>
+      <c r="D54" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E54">
+        <v>191524</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>386</v>
+      </c>
+      <c r="H54">
+        <v>116</v>
+      </c>
+      <c r="I54" t="s">
+        <v>387</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+      <c r="K54">
+        <v>99</v>
+      </c>
+      <c r="L54">
+        <v>99</v>
+      </c>
+      <c r="M54" s="6">
+        <v>44136</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>387</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>44151</v>
+      </c>
+      <c r="R54" t="s">
+        <v>387</v>
+      </c>
+      <c r="S54" s="6">
+        <v>44155</v>
+      </c>
+      <c r="T54">
+        <v>30</v>
+      </c>
+      <c r="U54">
+        <v>4</v>
+      </c>
+      <c r="V54" s="6">
+        <v>29221</v>
+      </c>
+      <c r="W54" t="s">
+        <v>387</v>
+      </c>
+      <c r="X54" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
+      <c r="AG54" s="4">
+        <v>93652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>191402</v>
+      </c>
+      <c r="B55">
+        <v>93431</v>
+      </c>
+      <c r="C55">
+        <v>1568</v>
+      </c>
+      <c r="D55" s="6">
+        <v>44286</v>
+      </c>
+      <c r="E55">
+        <v>191402</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>386</v>
+      </c>
+      <c r="H55">
+        <v>116</v>
+      </c>
+      <c r="I55" t="s">
+        <v>387</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>99</v>
+      </c>
+      <c r="L55">
+        <v>99</v>
+      </c>
+      <c r="M55" s="6">
+        <v>44256</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>8</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>44286</v>
+      </c>
+      <c r="R55" t="s">
+        <v>387</v>
+      </c>
+      <c r="S55" s="6">
+        <v>44287</v>
+      </c>
+      <c r="T55">
+        <v>30</v>
+      </c>
+      <c r="U55">
+        <v>4</v>
+      </c>
+      <c r="V55" s="6">
+        <v>21186</v>
+      </c>
+      <c r="W55" t="s">
+        <v>387</v>
+      </c>
+      <c r="X55" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>63</v>
+      </c>
+      <c r="AA55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="4">
+        <v>92198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>190210</v>
+      </c>
+      <c r="B56">
+        <v>93434</v>
+      </c>
+      <c r="C56">
+        <v>1568</v>
+      </c>
+      <c r="D56" s="6">
+        <v>44372</v>
+      </c>
+      <c r="E56">
+        <v>190210</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>386</v>
+      </c>
+      <c r="H56">
+        <v>116</v>
+      </c>
+      <c r="I56" t="s">
+        <v>387</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>99</v>
+      </c>
+      <c r="L56">
+        <v>99</v>
+      </c>
+      <c r="M56" s="6">
+        <v>43983</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>113</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>44372</v>
+      </c>
+      <c r="R56" t="s">
+        <v>387</v>
+      </c>
+      <c r="S56" s="6">
+        <v>44373</v>
+      </c>
+      <c r="T56">
+        <v>30</v>
+      </c>
+      <c r="U56">
+        <v>4</v>
+      </c>
+      <c r="V56" s="6">
+        <v>26139</v>
+      </c>
+      <c r="W56" t="s">
+        <v>387</v>
+      </c>
+      <c r="X56" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>49</v>
+      </c>
+      <c r="AA56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="4">
+        <v>92230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>190601</v>
+      </c>
+      <c r="B57">
+        <v>93435</v>
+      </c>
+      <c r="C57">
+        <v>1568</v>
+      </c>
+      <c r="D57" s="6">
+        <v>44165</v>
+      </c>
+      <c r="E57">
+        <v>190601</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>386</v>
+      </c>
+      <c r="H57">
+        <v>116</v>
+      </c>
+      <c r="I57" t="s">
+        <v>387</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>99</v>
+      </c>
+      <c r="L57">
+        <v>99</v>
+      </c>
+      <c r="M57" s="6">
+        <v>44013</v>
+      </c>
+      <c r="N57">
+        <v>8</v>
+      </c>
+      <c r="O57">
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>44165</v>
+      </c>
+      <c r="R57" t="s">
+        <v>387</v>
+      </c>
+      <c r="S57" s="6">
+        <v>44166</v>
+      </c>
+      <c r="T57">
+        <v>30</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57" s="6">
+        <v>22282</v>
+      </c>
+      <c r="W57" t="s">
+        <v>387</v>
+      </c>
+      <c r="X57" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>59</v>
+      </c>
+      <c r="AA57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AG57" s="4">
+        <v>93533</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>192145</v>
+      </c>
+      <c r="B58">
+        <v>93437</v>
+      </c>
+      <c r="C58">
+        <v>1568</v>
+      </c>
+      <c r="D58" s="6">
+        <v>44155</v>
+      </c>
+      <c r="E58">
+        <v>192145</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>386</v>
+      </c>
+      <c r="H58">
+        <v>207</v>
+      </c>
+      <c r="I58" t="s">
+        <v>387</v>
+      </c>
+      <c r="J58">
+        <v>99</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>99</v>
+      </c>
+      <c r="M58" s="6">
+        <v>44127</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58">
+        <v>101</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>44155</v>
+      </c>
+      <c r="R58" t="s">
+        <v>387</v>
+      </c>
+      <c r="S58" s="6">
+        <v>44156</v>
+      </c>
+      <c r="T58">
+        <v>30</v>
+      </c>
+      <c r="U58">
+        <v>4</v>
+      </c>
+      <c r="V58" s="6">
+        <v>28491</v>
+      </c>
+      <c r="W58" t="s">
+        <v>387</v>
+      </c>
+      <c r="X58" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>42</v>
+      </c>
+      <c r="AA58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
+      <c r="AG58" s="4">
+        <v>91498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>190682</v>
+      </c>
+      <c r="B59">
+        <v>93443</v>
+      </c>
+      <c r="C59">
+        <v>1568</v>
+      </c>
+      <c r="D59" s="6">
+        <v>44106</v>
+      </c>
+      <c r="E59">
+        <v>190682</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>386</v>
+      </c>
+      <c r="H59">
+        <v>421</v>
+      </c>
+      <c r="I59" t="s">
+        <v>387</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>99</v>
+      </c>
+      <c r="M59" s="6">
+        <v>44075</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>101</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>44106</v>
+      </c>
+      <c r="R59" t="s">
+        <v>387</v>
+      </c>
+      <c r="S59" s="6">
+        <v>44107</v>
+      </c>
+      <c r="T59">
+        <v>30</v>
+      </c>
+      <c r="U59">
+        <v>4</v>
+      </c>
+      <c r="V59" s="6">
+        <v>24838</v>
+      </c>
+      <c r="W59" t="s">
+        <v>387</v>
+      </c>
+      <c r="X59" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>52</v>
+      </c>
+      <c r="AA59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="4">
+        <v>93431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>190185</v>
+      </c>
+      <c r="B60">
+        <v>93444</v>
+      </c>
+      <c r="C60">
+        <v>1568</v>
+      </c>
+      <c r="D60" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E60">
+        <v>190185</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>386</v>
+      </c>
+      <c r="H60">
+        <v>101</v>
+      </c>
+      <c r="I60" t="s">
+        <v>387</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>99</v>
+      </c>
+      <c r="L60">
+        <v>99</v>
+      </c>
+      <c r="M60" t="s">
+        <v>387</v>
+      </c>
+      <c r="N60">
+        <v>8</v>
+      </c>
+      <c r="O60">
+        <v>102</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>44147</v>
+      </c>
+      <c r="R60" t="s">
+        <v>387</v>
+      </c>
+      <c r="S60" s="6">
+        <v>44148</v>
+      </c>
+      <c r="T60">
+        <v>30</v>
+      </c>
+      <c r="U60">
+        <v>4</v>
+      </c>
+      <c r="V60" s="6">
+        <v>32874</v>
+      </c>
+      <c r="W60" t="s">
+        <v>387</v>
+      </c>
+      <c r="X60" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>30</v>
+      </c>
+      <c r="AA60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AG60" s="4">
+        <v>92205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>190264</v>
+      </c>
+      <c r="B61">
+        <v>93447</v>
+      </c>
+      <c r="C61">
+        <v>1568</v>
+      </c>
+      <c r="D61" s="6">
+        <v>44386</v>
+      </c>
+      <c r="E61">
+        <v>190264</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>386</v>
+      </c>
+      <c r="H61">
+        <v>116</v>
+      </c>
+      <c r="I61" t="s">
+        <v>387</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>99</v>
+      </c>
+      <c r="L61">
+        <v>99</v>
+      </c>
+      <c r="M61" s="6">
+        <v>42370</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61">
+        <v>112</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R61" t="s">
+        <v>387</v>
+      </c>
+      <c r="S61" s="6">
+        <v>44387</v>
+      </c>
+      <c r="T61">
+        <v>30</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+      <c r="V61" s="6">
+        <v>20725</v>
+      </c>
+      <c r="W61" t="s">
+        <v>387</v>
+      </c>
+      <c r="X61" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>64</v>
+      </c>
+      <c r="AA61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="4">
+        <v>93480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>190179</v>
+      </c>
+      <c r="B62">
+        <v>93449</v>
+      </c>
+      <c r="C62">
+        <v>1568</v>
+      </c>
+      <c r="D62" s="6">
+        <v>44237</v>
+      </c>
+      <c r="E62">
+        <v>190179</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>386</v>
+      </c>
+      <c r="H62">
+        <v>116</v>
+      </c>
+      <c r="I62" t="s">
+        <v>387</v>
+      </c>
+      <c r="J62">
+        <v>9</v>
+      </c>
+      <c r="K62">
+        <v>99</v>
+      </c>
+      <c r="L62">
+        <v>99</v>
+      </c>
+      <c r="M62" s="6">
+        <v>42370</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62">
+        <v>112</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>44237</v>
+      </c>
+      <c r="R62" t="s">
+        <v>387</v>
+      </c>
+      <c r="S62" s="6">
+        <v>44238</v>
+      </c>
+      <c r="T62">
+        <v>30</v>
+      </c>
+      <c r="U62">
+        <v>4</v>
+      </c>
+      <c r="V62" s="6">
+        <v>23377</v>
+      </c>
+      <c r="W62" t="s">
+        <v>387</v>
+      </c>
+      <c r="X62" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>57</v>
+      </c>
+      <c r="AA62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
+      <c r="AG62" s="4">
+        <v>93343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>190222</v>
+      </c>
+      <c r="B63">
+        <v>93450</v>
+      </c>
+      <c r="C63">
+        <v>1568</v>
+      </c>
+      <c r="D63" s="6">
+        <v>44404</v>
+      </c>
+      <c r="E63">
+        <v>190222</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>386</v>
+      </c>
+      <c r="H63">
+        <v>207</v>
+      </c>
+      <c r="I63" t="s">
+        <v>387</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>99</v>
+      </c>
+      <c r="M63" t="s">
+        <v>387</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>101</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>44404</v>
+      </c>
+      <c r="R63" t="s">
+        <v>387</v>
+      </c>
+      <c r="S63" s="6">
+        <v>44405</v>
+      </c>
+      <c r="T63">
+        <v>30</v>
+      </c>
+      <c r="U63">
+        <v>4</v>
+      </c>
+      <c r="V63" s="6">
+        <v>21447</v>
+      </c>
+      <c r="W63" t="s">
+        <v>387</v>
+      </c>
+      <c r="X63" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>62</v>
+      </c>
+      <c r="AA63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
+      <c r="AG63" s="4">
+        <v>92055</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>191546</v>
+      </c>
+      <c r="B64">
+        <v>93452</v>
+      </c>
+      <c r="C64">
+        <v>1568</v>
+      </c>
+      <c r="D64" s="6">
+        <v>44175</v>
+      </c>
+      <c r="E64">
+        <v>191546</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>386</v>
+      </c>
+      <c r="H64">
+        <v>335</v>
+      </c>
+      <c r="I64" t="s">
+        <v>387</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>99</v>
+      </c>
+      <c r="M64" s="6">
+        <v>44175</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>106</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>44175</v>
+      </c>
+      <c r="R64" t="s">
+        <v>387</v>
+      </c>
+      <c r="S64" s="6">
+        <v>44176</v>
+      </c>
+      <c r="T64">
+        <v>30</v>
+      </c>
+      <c r="U64">
+        <v>4</v>
+      </c>
+      <c r="V64" s="6">
+        <v>29587</v>
+      </c>
+      <c r="W64" t="s">
+        <v>387</v>
+      </c>
+      <c r="X64" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>39</v>
+      </c>
+      <c r="AA64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
+      <c r="AG64" s="4">
+        <v>92244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>190285</v>
+      </c>
+      <c r="B65">
+        <v>93467</v>
+      </c>
+      <c r="C65">
+        <v>1568</v>
+      </c>
+      <c r="D65" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E65">
+        <v>190285</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>386</v>
+      </c>
+      <c r="H65">
+        <v>410</v>
+      </c>
+      <c r="I65" t="s">
+        <v>387</v>
+      </c>
+      <c r="J65">
+        <v>8</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>99</v>
+      </c>
+      <c r="M65" s="6">
+        <v>44173</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>101</v>
+      </c>
+      <c r="P65">
+        <v>8</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>44193</v>
+      </c>
+      <c r="R65" t="s">
+        <v>387</v>
+      </c>
+      <c r="S65" s="6">
+        <v>44194</v>
+      </c>
+      <c r="T65">
+        <v>30</v>
+      </c>
+      <c r="U65">
+        <v>4</v>
+      </c>
+      <c r="V65" s="6">
+        <v>31413</v>
+      </c>
+      <c r="W65" t="s">
+        <v>387</v>
+      </c>
+      <c r="X65" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>34</v>
+      </c>
+      <c r="AA65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="4">
+        <v>92027</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>191407</v>
+      </c>
+      <c r="B66">
+        <v>93470</v>
+      </c>
+      <c r="C66">
+        <v>1568</v>
+      </c>
+      <c r="D66" s="6">
+        <v>44397</v>
+      </c>
+      <c r="E66">
+        <v>191407</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>386</v>
+      </c>
+      <c r="H66">
+        <v>101</v>
+      </c>
+      <c r="I66" t="s">
+        <v>387</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>99</v>
+      </c>
+      <c r="L66">
+        <v>99</v>
+      </c>
+      <c r="M66" s="6">
+        <v>44199</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66">
+        <v>112</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>44397</v>
+      </c>
+      <c r="R66" t="s">
+        <v>387</v>
+      </c>
+      <c r="S66" s="6">
+        <v>44399</v>
+      </c>
+      <c r="T66">
+        <v>30</v>
+      </c>
+      <c r="U66">
+        <v>4</v>
+      </c>
+      <c r="V66" s="6">
+        <v>24108</v>
+      </c>
+      <c r="W66" t="s">
+        <v>387</v>
+      </c>
+      <c r="X66" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>55</v>
+      </c>
+      <c r="AA66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AG66" s="4">
+        <v>92292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>190383</v>
+      </c>
+      <c r="B67">
+        <v>93480</v>
+      </c>
+      <c r="C67">
+        <v>1565</v>
+      </c>
+      <c r="D67" s="6">
+        <v>44424</v>
+      </c>
+      <c r="E67">
+        <v>190383</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>386</v>
+      </c>
+      <c r="H67">
+        <v>101</v>
+      </c>
+      <c r="I67" t="s">
+        <v>387</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>99</v>
+      </c>
+      <c r="L67">
+        <v>99</v>
+      </c>
+      <c r="M67" s="6">
+        <v>43250</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <v>113</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>44424</v>
+      </c>
+      <c r="R67" t="s">
+        <v>387</v>
+      </c>
+      <c r="S67" s="6">
+        <v>44456</v>
+      </c>
+      <c r="T67">
+        <v>207</v>
+      </c>
+      <c r="U67">
+        <v>4</v>
+      </c>
+      <c r="V67" s="6">
+        <v>30858</v>
+      </c>
+      <c r="W67" t="s">
+        <v>387</v>
+      </c>
+      <c r="X67" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>37</v>
+      </c>
+      <c r="AA67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
+      <c r="AG67" s="4">
+        <v>91430</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>189659</v>
+      </c>
+      <c r="B68">
+        <v>93633</v>
+      </c>
+      <c r="C68">
+        <v>1568</v>
+      </c>
+      <c r="D68" s="6">
+        <v>44287</v>
+      </c>
+      <c r="E68">
+        <v>189659</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>386</v>
+      </c>
+      <c r="H68">
+        <v>116</v>
+      </c>
+      <c r="I68" t="s">
+        <v>387</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>99</v>
+      </c>
+      <c r="L68">
+        <v>99</v>
+      </c>
+      <c r="M68" s="6">
+        <v>44287</v>
+      </c>
+      <c r="N68">
+        <v>8</v>
+      </c>
+      <c r="O68">
+        <v>8</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>387</v>
+      </c>
+      <c r="R68" t="s">
+        <v>387</v>
+      </c>
+      <c r="S68" s="6">
+        <v>44469</v>
+      </c>
+      <c r="T68">
+        <v>30</v>
+      </c>
+      <c r="U68">
+        <v>4</v>
+      </c>
+      <c r="V68" s="6">
+        <v>22969</v>
+      </c>
+      <c r="W68" t="s">
+        <v>387</v>
+      </c>
+      <c r="X68" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>58</v>
+      </c>
+      <c r="AA68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
+      <c r="AG68" s="4">
+        <v>93450</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>189579</v>
+      </c>
+      <c r="B69">
+        <v>93652</v>
+      </c>
+      <c r="C69">
+        <v>1568</v>
+      </c>
+      <c r="D69" s="6">
+        <v>44273</v>
+      </c>
+      <c r="E69">
+        <v>189579</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>386</v>
+      </c>
+      <c r="H69">
+        <v>116</v>
+      </c>
+      <c r="I69" t="s">
+        <v>387</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <v>99</v>
+      </c>
+      <c r="L69">
+        <v>99</v>
+      </c>
+      <c r="M69" s="6">
+        <v>44273</v>
+      </c>
+      <c r="N69">
+        <v>8</v>
+      </c>
+      <c r="O69">
+        <v>8</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>387</v>
+      </c>
+      <c r="R69" t="s">
+        <v>387</v>
+      </c>
+      <c r="S69" s="6">
+        <v>44376</v>
+      </c>
+      <c r="T69">
+        <v>426</v>
+      </c>
+      <c r="U69">
+        <v>4</v>
+      </c>
+      <c r="V69" s="6">
+        <v>32018</v>
+      </c>
+      <c r="W69" t="s">
+        <v>387</v>
+      </c>
+      <c r="X69" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>33</v>
+      </c>
+      <c r="AA69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
+      </c>
+      <c r="AG69" s="4">
+        <v>93428</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>189653</v>
+      </c>
+      <c r="B70">
+        <v>93654</v>
+      </c>
+      <c r="C70">
+        <v>1568</v>
+      </c>
+      <c r="D70" s="6">
+        <v>44300</v>
+      </c>
+      <c r="E70">
+        <v>189653</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>386</v>
+      </c>
+      <c r="H70">
+        <v>116</v>
+      </c>
+      <c r="I70" t="s">
+        <v>387</v>
+      </c>
+      <c r="J70">
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <v>99</v>
+      </c>
+      <c r="L70">
+        <v>99</v>
+      </c>
+      <c r="M70" s="6">
+        <v>44300</v>
+      </c>
+      <c r="N70">
+        <v>8</v>
+      </c>
+      <c r="O70">
+        <v>8</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>387</v>
+      </c>
+      <c r="R70" t="s">
+        <v>387</v>
+      </c>
+      <c r="S70" s="6">
+        <v>44413</v>
+      </c>
+      <c r="T70">
+        <v>30</v>
+      </c>
+      <c r="U70">
+        <v>4</v>
+      </c>
+      <c r="V70" s="6">
+        <v>31065</v>
+      </c>
+      <c r="W70" t="s">
+        <v>387</v>
+      </c>
+      <c r="X70" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>36</v>
+      </c>
+      <c r="AA70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
+      <c r="AG70" s="4">
+        <v>91508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>189654</v>
+      </c>
+      <c r="B71">
+        <v>93655</v>
+      </c>
+      <c r="C71">
+        <v>1568</v>
+      </c>
+      <c r="D71" s="6">
+        <v>44270</v>
+      </c>
+      <c r="E71">
+        <v>189654</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>386</v>
+      </c>
+      <c r="H71">
+        <v>116</v>
+      </c>
+      <c r="I71" t="s">
+        <v>387</v>
+      </c>
+      <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <v>99</v>
+      </c>
+      <c r="L71">
+        <v>99</v>
+      </c>
+      <c r="M71" s="6">
+        <v>44270</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>8</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>387</v>
+      </c>
+      <c r="R71" t="s">
+        <v>387</v>
+      </c>
+      <c r="S71" s="6">
+        <v>44362</v>
+      </c>
+      <c r="T71">
+        <v>30</v>
+      </c>
+      <c r="U71">
+        <v>4</v>
+      </c>
+      <c r="V71" s="6">
+        <v>29221</v>
+      </c>
+      <c r="W71" t="s">
+        <v>387</v>
+      </c>
+      <c r="X71" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>41</v>
+      </c>
+      <c r="AA71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="4">
+        <v>92031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>189655</v>
+      </c>
+      <c r="B72">
+        <v>93656</v>
+      </c>
+      <c r="C72">
+        <v>1568</v>
+      </c>
+      <c r="D72" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E72">
+        <v>189655</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>386</v>
+      </c>
+      <c r="H72">
+        <v>116</v>
+      </c>
+      <c r="I72" t="s">
+        <v>387</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <v>99</v>
+      </c>
+      <c r="L72">
+        <v>99</v>
+      </c>
+      <c r="M72" s="6">
+        <v>44210</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>8</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>387</v>
+      </c>
+      <c r="R72" t="s">
+        <v>387</v>
+      </c>
+      <c r="S72" s="6">
+        <v>44396</v>
+      </c>
+      <c r="T72">
+        <v>30</v>
+      </c>
+      <c r="U72">
+        <v>4</v>
+      </c>
+      <c r="V72" s="6">
+        <v>29221</v>
+      </c>
+      <c r="W72" t="s">
+        <v>387</v>
+      </c>
+      <c r="X72" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>41</v>
+      </c>
+      <c r="AA72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="4">
+        <v>92210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>189656</v>
+      </c>
+      <c r="B73">
+        <v>93658</v>
+      </c>
+      <c r="C73">
+        <v>1568</v>
+      </c>
+      <c r="D73" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E73">
+        <v>189656</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>386</v>
+      </c>
+      <c r="H73">
+        <v>116</v>
+      </c>
+      <c r="I73" t="s">
+        <v>387</v>
+      </c>
+      <c r="J73">
+        <v>8</v>
+      </c>
+      <c r="K73">
+        <v>99</v>
+      </c>
+      <c r="L73">
+        <v>99</v>
+      </c>
+      <c r="M73" s="6">
+        <v>44210</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>8</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>387</v>
+      </c>
+      <c r="R73" t="s">
+        <v>387</v>
+      </c>
+      <c r="S73" s="6">
+        <v>44396</v>
+      </c>
+      <c r="T73">
+        <v>30</v>
+      </c>
+      <c r="U73">
+        <v>4</v>
+      </c>
+      <c r="V73" s="6">
+        <v>32313</v>
+      </c>
+      <c r="W73" t="s">
+        <v>387</v>
+      </c>
+      <c r="X73" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>32</v>
+      </c>
+      <c r="AA73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
+      <c r="AG73" s="4">
+        <v>92247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>189657</v>
+      </c>
+      <c r="B74">
+        <v>93660</v>
+      </c>
+      <c r="C74">
+        <v>1568</v>
+      </c>
+      <c r="D74" s="6">
+        <v>44217</v>
+      </c>
+      <c r="E74">
+        <v>189657</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>386</v>
+      </c>
+      <c r="H74">
+        <v>116</v>
+      </c>
+      <c r="I74" t="s">
+        <v>387</v>
+      </c>
+      <c r="J74">
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <v>99</v>
+      </c>
+      <c r="L74">
+        <v>99</v>
+      </c>
+      <c r="M74" s="6">
+        <v>44217</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>8</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>387</v>
+      </c>
+      <c r="R74" t="s">
+        <v>387</v>
+      </c>
+      <c r="S74" s="6">
+        <v>44377</v>
+      </c>
+      <c r="T74">
+        <v>30</v>
+      </c>
+      <c r="U74">
+        <v>4</v>
+      </c>
+      <c r="V74" s="6">
+        <v>29221</v>
+      </c>
+      <c r="W74" t="s">
+        <v>387</v>
+      </c>
+      <c r="X74" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>41</v>
+      </c>
+      <c r="AA74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
+      </c>
+      <c r="AG74" s="4">
+        <v>91520</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>191340</v>
+      </c>
+      <c r="B75">
+        <v>93764</v>
+      </c>
+      <c r="C75">
+        <v>1566</v>
+      </c>
+      <c r="D75" s="6">
+        <v>44320</v>
+      </c>
+      <c r="E75">
+        <v>191340</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>386</v>
+      </c>
+      <c r="H75">
+        <v>99</v>
+      </c>
+      <c r="I75" t="s">
+        <v>387</v>
+      </c>
+      <c r="J75">
+        <v>99</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>99</v>
+      </c>
+      <c r="M75" t="s">
+        <v>387</v>
+      </c>
+      <c r="N75" t="s">
+        <v>387</v>
+      </c>
+      <c r="O75" t="s">
+        <v>387</v>
+      </c>
+      <c r="P75">
+        <v>99</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>387</v>
+      </c>
+      <c r="R75" t="s">
+        <v>387</v>
+      </c>
+      <c r="S75" s="6">
+        <v>44380</v>
+      </c>
+      <c r="T75">
+        <v>30</v>
+      </c>
+      <c r="U75">
+        <v>4</v>
+      </c>
+      <c r="V75" s="6">
+        <v>32868</v>
+      </c>
+      <c r="W75" t="s">
+        <v>387</v>
+      </c>
+      <c r="X75" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>31</v>
+      </c>
+      <c r="AA75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+      <c r="AG75" s="4">
+        <v>93423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>192170</v>
+      </c>
+      <c r="B76">
+        <v>94011</v>
+      </c>
+      <c r="C76">
+        <v>1568</v>
+      </c>
+      <c r="D76" s="6">
+        <v>44364</v>
+      </c>
+      <c r="E76">
+        <v>192170</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>386</v>
+      </c>
+      <c r="H76">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>387</v>
+      </c>
+      <c r="J76">
+        <v>99</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>99</v>
+      </c>
+      <c r="M76" t="s">
+        <v>387</v>
+      </c>
+      <c r="N76" t="s">
+        <v>387</v>
+      </c>
+      <c r="O76" t="s">
+        <v>387</v>
+      </c>
+      <c r="P76">
+        <v>99</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>387</v>
+      </c>
+      <c r="R76" t="s">
+        <v>387</v>
+      </c>
+      <c r="S76" s="6">
+        <v>44454</v>
+      </c>
+      <c r="T76">
+        <v>30</v>
+      </c>
+      <c r="U76">
+        <v>4</v>
+      </c>
+      <c r="V76" s="6">
+        <v>30792</v>
+      </c>
+      <c r="W76" t="s">
+        <v>387</v>
+      </c>
+      <c r="X76" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>37</v>
+      </c>
+      <c r="AA76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
+      <c r="AG76" s="4">
+        <v>92242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG77" s="4">
+        <v>91435</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AG1:AG1048576 B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
